--- a/data/case_003.xlsx
+++ b/data/case_003.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$67</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -468,11 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -504,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -524,7 +523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -544,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -564,7 +563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -584,7 +583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -604,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -624,7 +623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -644,7 +643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -664,7 +663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -684,7 +683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -704,7 +703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -724,7 +723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -744,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -764,7 +763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -784,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -804,7 +803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -824,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -844,7 +843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -864,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -884,7 +883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -904,7 +903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -924,7 +923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -944,7 +943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -964,7 +963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -984,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -1084,7 +1083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -3081,13 +3080,7 @@
       <c r="F224"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F56">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F67"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
